--- a/results/Test2.xlsx
+++ b/results/Test2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Load [MW]</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>GT3 [MW]</t>
+  </si>
+  <si>
+    <t>GT4 [MW]</t>
   </si>
   <si>
     <t>Cost [USD]</t>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>GT3 Status</t>
+  </si>
+  <si>
+    <t>GT4 Status</t>
   </si>
   <si>
     <t>Mean</t>
@@ -413,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -424,17 +430,19 @@
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,483 +482,549 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>65.5</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>18.65</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>19.74</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>15.22</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>11.88</v>
       </c>
       <c r="G2">
-        <v>2331.29</v>
+        <v>20987.32</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2065536.11</v>
       </c>
       <c r="I2">
-        <v>1101.45</v>
+        <v>73.64</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7440.09</v>
       </c>
       <c r="K2">
-        <v>161.25</v>
+        <v>14.08</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1379.38</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>64.52</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>17.68</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>19.74</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>15.22</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>11.88</v>
       </c>
       <c r="G3">
-        <v>2331.29</v>
+        <v>20742.56</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2065536.11</v>
       </c>
       <c r="I3">
-        <v>1101.45</v>
+        <v>72.17</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7440.09</v>
       </c>
       <c r="K3">
-        <v>161.25</v>
+        <v>13.87</v>
       </c>
       <c r="L3">
-        <v>-0</v>
+        <v>1379.38</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>63.02</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>16.18</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>19.74</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>15.22</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>11.88</v>
       </c>
       <c r="G4">
-        <v>2331.29</v>
+        <v>20367.61</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2065536.11</v>
       </c>
       <c r="I4">
-        <v>1101.45</v>
+        <v>70.28</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7440.09</v>
       </c>
       <c r="K4">
-        <v>161.25</v>
+        <v>13.55</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1379.38</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>61.66</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>14.82</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>19.74</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>15.22</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>11.88</v>
       </c>
       <c r="G5">
-        <v>2331.29</v>
+        <v>20028.59</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2065536.11</v>
       </c>
       <c r="I5">
-        <v>1101.45</v>
+        <v>68.87</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7440.09</v>
       </c>
       <c r="K5">
-        <v>161.25</v>
+        <v>13.26</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1379.38</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>60.66</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>13.81</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>19.74</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>15.22</v>
       </c>
       <c r="F6">
-        <v>146.05</v>
+        <v>11.88</v>
       </c>
       <c r="G6">
-        <v>2331.29</v>
+        <v>19777.06</v>
       </c>
       <c r="H6">
-        <v>39.41</v>
+        <v>2065536.11</v>
       </c>
       <c r="I6">
-        <v>1101.45</v>
+        <v>67.95999999999999</v>
       </c>
       <c r="J6">
-        <v>5.37</v>
+        <v>7440.09</v>
       </c>
       <c r="K6">
-        <v>161.25</v>
+        <v>13.04</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>1379.38</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>59.61</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>12.76</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>19.74</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>15.22</v>
       </c>
       <c r="F7">
-        <v>76.05</v>
+        <v>11.88</v>
       </c>
       <c r="G7">
-        <v>2331.29</v>
+        <v>19514.59</v>
       </c>
       <c r="H7">
-        <v>39.41</v>
+        <v>2065536.11</v>
       </c>
       <c r="I7">
-        <v>1101.45</v>
+        <v>67.12</v>
       </c>
       <c r="J7">
-        <v>5.37</v>
+        <v>7440.09</v>
       </c>
       <c r="K7">
-        <v>161.25</v>
+        <v>12.82</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>1379.38</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>58.56</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>11.71</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>19.74</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>15.22</v>
       </c>
       <c r="F8">
-        <v>76.05</v>
+        <v>11.88</v>
       </c>
       <c r="G8">
-        <v>2331.29</v>
+        <v>19252.12</v>
       </c>
       <c r="H8">
-        <v>39.41</v>
+        <v>2065536.11</v>
       </c>
       <c r="I8">
-        <v>1101.45</v>
+        <v>66.36</v>
       </c>
       <c r="J8">
-        <v>5.37</v>
+        <v>7440.09</v>
       </c>
       <c r="K8">
-        <v>161.25</v>
+        <v>12.59</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>1379.38</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>57.51</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>10.66</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>19.74</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>15.22</v>
       </c>
       <c r="F9">
-        <v>222.09</v>
+        <v>11.88</v>
       </c>
       <c r="G9">
-        <v>2331.29</v>
+        <v>18989.66</v>
       </c>
       <c r="H9">
-        <v>78.81999999999999</v>
+        <v>2065536.11</v>
       </c>
       <c r="I9">
-        <v>1101.45</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="J9">
-        <v>10.75</v>
+        <v>7440.09</v>
       </c>
       <c r="K9">
-        <v>161.25</v>
+        <v>12.36</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>1379.38</v>
       </c>
       <c r="M9">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>56.46</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>19.74</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>15.22</v>
       </c>
       <c r="F10">
-        <v>152.09</v>
+        <v>11.88</v>
       </c>
       <c r="G10">
-        <v>2331.29</v>
+        <v>18727.19</v>
       </c>
       <c r="H10">
-        <v>78.81999999999999</v>
+        <v>2065536.11</v>
       </c>
       <c r="I10">
-        <v>1101.45</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="J10">
-        <v>10.75</v>
+        <v>7440.09</v>
       </c>
       <c r="K10">
-        <v>161.25</v>
+        <v>12.14</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>1379.38</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>55.23</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>12.35</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>18.31</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>13.92</v>
       </c>
       <c r="F11">
-        <v>152.09</v>
+        <v>10.65</v>
       </c>
       <c r="G11">
-        <v>2331.29</v>
+        <v>18457.98</v>
       </c>
       <c r="H11">
-        <v>78.81999999999999</v>
+        <v>2065536.11</v>
       </c>
       <c r="I11">
-        <v>1101.45</v>
+        <v>62.35</v>
       </c>
       <c r="J11">
-        <v>10.75</v>
+        <v>7440.09</v>
       </c>
       <c r="K11">
-        <v>161.25</v>
+        <v>11.88</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>1379.38</v>
       </c>
       <c r="M11">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>16.1</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>21.1</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>16.47</v>
       </c>
       <c r="F12">
-        <v>298.14</v>
+        <v>13.05</v>
       </c>
       <c r="G12">
-        <v>2331.29</v>
+        <v>21325.73</v>
       </c>
       <c r="H12">
-        <v>118.24</v>
+        <v>2065536.11</v>
       </c>
       <c r="I12">
-        <v>1101.45</v>
+        <v>75.36</v>
       </c>
       <c r="J12">
-        <v>16.12</v>
+        <v>7440.09</v>
       </c>
       <c r="K12">
-        <v>161.25</v>
+        <v>14.34</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>1379.38</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -958,43 +1032,49 @@
       <c r="N12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>65.56</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>18.71</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>19.74</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>15.22</v>
       </c>
       <c r="F13">
-        <v>228.14</v>
+        <v>11.88</v>
       </c>
       <c r="G13">
-        <v>2331.29</v>
+        <v>21001.9</v>
       </c>
       <c r="H13">
-        <v>118.24</v>
+        <v>2065536.11</v>
       </c>
       <c r="I13">
-        <v>1101.45</v>
+        <v>73.73</v>
       </c>
       <c r="J13">
-        <v>16.12</v>
+        <v>7440.09</v>
       </c>
       <c r="K13">
-        <v>161.25</v>
+        <v>14.09</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>1379.38</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1002,43 +1082,49 @@
       <c r="N13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>64.55</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>19.09</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>19.24</v>
       </c>
       <c r="E14">
-        <v>25</v>
+        <v>14.77</v>
       </c>
       <c r="F14">
-        <v>228.14</v>
+        <v>11.46</v>
       </c>
       <c r="G14">
-        <v>2331.29</v>
+        <v>20754.92</v>
       </c>
       <c r="H14">
-        <v>118.24</v>
+        <v>2065536.11</v>
       </c>
       <c r="I14">
-        <v>1101.45</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="J14">
-        <v>16.12</v>
+        <v>7440.09</v>
       </c>
       <c r="K14">
-        <v>161.25</v>
+        <v>13.88</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>1379.38</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1046,43 +1132,49 @@
       <c r="N14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>71.04000000000001</v>
       </c>
       <c r="C15">
-        <v>33.33</v>
+        <v>22.84</v>
       </c>
       <c r="D15">
-        <v>33.33</v>
+        <v>20.23</v>
       </c>
       <c r="E15">
-        <v>33.33</v>
+        <v>15.67</v>
       </c>
       <c r="F15">
-        <v>250.81</v>
+        <v>12.3</v>
       </c>
       <c r="G15">
-        <v>2331.29</v>
+        <v>22377</v>
       </c>
       <c r="H15">
-        <v>130.67</v>
+        <v>2065536.11</v>
       </c>
       <c r="I15">
-        <v>1101.45</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="J15">
-        <v>21.5</v>
+        <v>7440.09</v>
       </c>
       <c r="K15">
-        <v>161.25</v>
+        <v>15.27</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>1379.38</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -1090,43 +1182,49 @@
       <c r="N15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>69.45</v>
       </c>
       <c r="C16">
-        <v>33.33</v>
+        <v>22.61</v>
       </c>
       <c r="D16">
-        <v>33.33</v>
+        <v>19.74</v>
       </c>
       <c r="E16">
-        <v>33.33</v>
+        <v>15.22</v>
       </c>
       <c r="F16">
-        <v>250.81</v>
+        <v>11.88</v>
       </c>
       <c r="G16">
-        <v>2331.29</v>
+        <v>21975.21</v>
       </c>
       <c r="H16">
-        <v>130.67</v>
+        <v>2065536.11</v>
       </c>
       <c r="I16">
-        <v>1101.45</v>
+        <v>82.81</v>
       </c>
       <c r="J16">
-        <v>21.5</v>
+        <v>7440.09</v>
       </c>
       <c r="K16">
-        <v>161.25</v>
+        <v>14.93</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>1379.38</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -1134,43 +1232,49 @@
       <c r="N16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="C17">
-        <v>33.33</v>
+        <v>21.62</v>
       </c>
       <c r="D17">
-        <v>33.33</v>
+        <v>19.74</v>
       </c>
       <c r="E17">
-        <v>33.33</v>
+        <v>15.22</v>
       </c>
       <c r="F17">
-        <v>250.81</v>
+        <v>11.88</v>
       </c>
       <c r="G17">
-        <v>2331.29</v>
+        <v>21728.06</v>
       </c>
       <c r="H17">
-        <v>130.67</v>
+        <v>2065536.11</v>
       </c>
       <c r="I17">
-        <v>1101.45</v>
+        <v>79.83</v>
       </c>
       <c r="J17">
-        <v>21.5</v>
+        <v>7440.09</v>
       </c>
       <c r="K17">
-        <v>161.25</v>
+        <v>14.72</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>1379.38</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -1178,49 +1282,4261 @@
       <c r="N17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>46.88</v>
+        <v>67.48</v>
       </c>
       <c r="C18">
-        <v>20.31</v>
+        <v>21.25</v>
       </c>
       <c r="D18">
-        <v>10.94</v>
+        <v>19.52</v>
       </c>
       <c r="E18">
+        <v>15.02</v>
+      </c>
+      <c r="F18">
+        <v>11.69</v>
+      </c>
+      <c r="G18">
+        <v>21483.98</v>
+      </c>
+      <c r="H18">
+        <v>2065536.11</v>
+      </c>
+      <c r="I18">
+        <v>78.12</v>
+      </c>
+      <c r="J18">
+        <v>7440.09</v>
+      </c>
+      <c r="K18">
+        <v>14.51</v>
+      </c>
+      <c r="L18">
+        <v>1379.38</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>72.73</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>20.06</v>
+      </c>
+      <c r="E19">
+        <v>15.52</v>
+      </c>
+      <c r="F19">
+        <v>12.16</v>
+      </c>
+      <c r="G19">
+        <v>22797.31</v>
+      </c>
+      <c r="H19">
+        <v>2065536.11</v>
+      </c>
+      <c r="I19">
+        <v>94.86</v>
+      </c>
+      <c r="J19">
+        <v>7440.09</v>
+      </c>
+      <c r="K19">
+        <v>15.64</v>
+      </c>
+      <c r="L19">
+        <v>1379.38</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>73.78</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>20.43</v>
+      </c>
+      <c r="E20">
+        <v>15.86</v>
+      </c>
+      <c r="F20">
+        <v>12.48</v>
+      </c>
+      <c r="G20">
+        <v>23066.96</v>
+      </c>
+      <c r="H20">
+        <v>2065536.11</v>
+      </c>
+      <c r="I20">
+        <v>96.26000000000001</v>
+      </c>
+      <c r="J20">
+        <v>7440.09</v>
+      </c>
+      <c r="K20">
+        <v>15.86</v>
+      </c>
+      <c r="L20">
+        <v>1379.38</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>66.37</v>
+      </c>
+      <c r="C21">
+        <v>21.25</v>
+      </c>
+      <c r="D21">
+        <v>19.11</v>
+      </c>
+      <c r="E21">
+        <v>14.65</v>
+      </c>
+      <c r="F21">
+        <v>11.35</v>
+      </c>
+      <c r="G21">
+        <v>21211.32</v>
+      </c>
+      <c r="H21">
+        <v>2065536.11</v>
+      </c>
+      <c r="I21">
+        <v>76.81999999999999</v>
+      </c>
+      <c r="J21">
+        <v>7440.09</v>
+      </c>
+      <c r="K21">
+        <v>14.27</v>
+      </c>
+      <c r="L21">
+        <v>1379.38</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>70.28</v>
+      </c>
+      <c r="C22">
+        <v>23.44</v>
+      </c>
+      <c r="D22">
+        <v>19.74</v>
+      </c>
+      <c r="E22">
+        <v>15.22</v>
+      </c>
+      <c r="F22">
+        <v>11.88</v>
+      </c>
+      <c r="G22">
+        <v>22183</v>
+      </c>
+      <c r="H22">
+        <v>2065536.11</v>
+      </c>
+      <c r="I22">
+        <v>85.88</v>
+      </c>
+      <c r="J22">
+        <v>7440.09</v>
+      </c>
+      <c r="K22">
+        <v>15.11</v>
+      </c>
+      <c r="L22">
+        <v>1379.38</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>69.23</v>
+      </c>
+      <c r="C23">
+        <v>22.39</v>
+      </c>
+      <c r="D23">
+        <v>19.74</v>
+      </c>
+      <c r="E23">
+        <v>15.22</v>
+      </c>
+      <c r="F23">
+        <v>11.88</v>
+      </c>
+      <c r="G23">
+        <v>21920.53</v>
+      </c>
+      <c r="H23">
+        <v>2065536.11</v>
+      </c>
+      <c r="I23">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="J23">
+        <v>7440.09</v>
+      </c>
+      <c r="K23">
+        <v>14.88</v>
+      </c>
+      <c r="L23">
+        <v>1379.38</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="C24">
+        <v>21.16</v>
+      </c>
+      <c r="D24">
+        <v>19.74</v>
+      </c>
+      <c r="E24">
+        <v>15.22</v>
+      </c>
+      <c r="F24">
+        <v>11.88</v>
+      </c>
+      <c r="G24">
+        <v>21614.32</v>
+      </c>
+      <c r="H24">
+        <v>2065536.11</v>
+      </c>
+      <c r="I24">
+        <v>78.65000000000001</v>
+      </c>
+      <c r="J24">
+        <v>7440.09</v>
+      </c>
+      <c r="K24">
+        <v>14.62</v>
+      </c>
+      <c r="L24">
+        <v>1379.38</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>64.52</v>
+      </c>
+      <c r="C25">
+        <v>17.68</v>
+      </c>
+      <c r="D25">
+        <v>19.74</v>
+      </c>
+      <c r="E25">
+        <v>15.22</v>
+      </c>
+      <c r="F25">
+        <v>11.88</v>
+      </c>
+      <c r="G25">
+        <v>20742.56</v>
+      </c>
+      <c r="H25">
+        <v>2065536.11</v>
+      </c>
+      <c r="I25">
+        <v>72.17</v>
+      </c>
+      <c r="J25">
+        <v>7440.09</v>
+      </c>
+      <c r="K25">
+        <v>13.87</v>
+      </c>
+      <c r="L25">
+        <v>1379.38</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>63.13</v>
+      </c>
+      <c r="C26">
+        <v>16.29</v>
+      </c>
+      <c r="D26">
+        <v>19.74</v>
+      </c>
+      <c r="E26">
+        <v>15.22</v>
+      </c>
+      <c r="F26">
+        <v>11.88</v>
+      </c>
+      <c r="G26">
+        <v>20394.95</v>
+      </c>
+      <c r="H26">
+        <v>2065536.11</v>
+      </c>
+      <c r="I26">
+        <v>70.41</v>
+      </c>
+      <c r="J26">
+        <v>7440.09</v>
+      </c>
+      <c r="K26">
+        <v>13.57</v>
+      </c>
+      <c r="L26">
+        <v>1379.38</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>61.8</v>
+      </c>
+      <c r="C27">
+        <v>14.95</v>
+      </c>
+      <c r="D27">
+        <v>19.74</v>
+      </c>
+      <c r="E27">
+        <v>15.22</v>
+      </c>
+      <c r="F27">
+        <v>11.88</v>
+      </c>
+      <c r="G27">
+        <v>20061.39</v>
+      </c>
+      <c r="H27">
+        <v>2065536.11</v>
+      </c>
+      <c r="I27">
+        <v>69</v>
+      </c>
+      <c r="J27">
+        <v>7440.09</v>
+      </c>
+      <c r="K27">
+        <v>13.29</v>
+      </c>
+      <c r="L27">
+        <v>1379.38</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>60.66</v>
+      </c>
+      <c r="C28">
+        <v>13.81</v>
+      </c>
+      <c r="D28">
+        <v>19.74</v>
+      </c>
+      <c r="E28">
+        <v>15.22</v>
+      </c>
+      <c r="F28">
+        <v>11.88</v>
+      </c>
+      <c r="G28">
+        <v>19777.06</v>
+      </c>
+      <c r="H28">
+        <v>2065536.11</v>
+      </c>
+      <c r="I28">
+        <v>67.95999999999999</v>
+      </c>
+      <c r="J28">
+        <v>7440.09</v>
+      </c>
+      <c r="K28">
+        <v>13.04</v>
+      </c>
+      <c r="L28">
+        <v>1379.38</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>59.61</v>
+      </c>
+      <c r="C29">
+        <v>12.76</v>
+      </c>
+      <c r="D29">
+        <v>19.74</v>
+      </c>
+      <c r="E29">
+        <v>15.22</v>
+      </c>
+      <c r="F29">
+        <v>11.88</v>
+      </c>
+      <c r="G29">
+        <v>19514.59</v>
+      </c>
+      <c r="H29">
+        <v>2065536.11</v>
+      </c>
+      <c r="I29">
+        <v>67.12</v>
+      </c>
+      <c r="J29">
+        <v>7440.09</v>
+      </c>
+      <c r="K29">
+        <v>12.82</v>
+      </c>
+      <c r="L29">
+        <v>1379.38</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>58.25</v>
+      </c>
+      <c r="C30">
+        <v>15.66</v>
+      </c>
+      <c r="D30">
+        <v>18.21</v>
+      </c>
+      <c r="E30">
+        <v>13.82</v>
+      </c>
+      <c r="F30">
+        <v>10.56</v>
+      </c>
+      <c r="G30">
+        <v>19218.13</v>
+      </c>
+      <c r="H30">
+        <v>2065536.11</v>
+      </c>
+      <c r="I30">
+        <v>64.95999999999999</v>
+      </c>
+      <c r="J30">
+        <v>7440.09</v>
+      </c>
+      <c r="K30">
+        <v>12.52</v>
+      </c>
+      <c r="L30">
+        <v>1379.38</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="C31">
+        <v>19.41</v>
+      </c>
+      <c r="D31">
+        <v>19.46</v>
+      </c>
+      <c r="E31">
+        <v>14.97</v>
+      </c>
+      <c r="F31">
+        <v>11.65</v>
+      </c>
+      <c r="G31">
+        <v>20986.62</v>
+      </c>
+      <c r="H31">
+        <v>2065536.11</v>
+      </c>
+      <c r="I31">
+        <v>74</v>
+      </c>
+      <c r="J31">
+        <v>7440.09</v>
+      </c>
+      <c r="K31">
+        <v>14.08</v>
+      </c>
+      <c r="L31">
+        <v>1379.38</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>74.75</v>
+      </c>
+      <c r="C32">
+        <v>23.16</v>
+      </c>
+      <c r="D32">
+        <v>21.45</v>
+      </c>
+      <c r="E32">
+        <v>16.79</v>
+      </c>
+      <c r="F32">
+        <v>13.35</v>
+      </c>
+      <c r="G32">
+        <v>23355.97</v>
+      </c>
+      <c r="H32">
+        <v>2065536.11</v>
+      </c>
+      <c r="I32">
+        <v>91.48</v>
+      </c>
+      <c r="J32">
+        <v>7440.09</v>
+      </c>
+      <c r="K32">
+        <v>16.07</v>
+      </c>
+      <c r="L32">
+        <v>1379.38</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>72.97</v>
+      </c>
+      <c r="C33">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>20.14</v>
+      </c>
+      <c r="E33">
+        <v>15.6</v>
+      </c>
+      <c r="F33">
+        <v>12.23</v>
+      </c>
+      <c r="G33">
+        <v>22858.26</v>
+      </c>
+      <c r="H33">
+        <v>2065536.11</v>
+      </c>
+      <c r="I33">
+        <v>95.17</v>
+      </c>
+      <c r="J33">
+        <v>7440.09</v>
+      </c>
+      <c r="K33">
+        <v>15.69</v>
+      </c>
+      <c r="L33">
+        <v>1379.38</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>71.54000000000001</v>
+      </c>
+      <c r="C34">
+        <v>24.7</v>
+      </c>
+      <c r="D34">
+        <v>19.74</v>
+      </c>
+      <c r="E34">
+        <v>15.22</v>
+      </c>
+      <c r="F34">
+        <v>11.88</v>
+      </c>
+      <c r="G34">
+        <v>22497.71</v>
+      </c>
+      <c r="H34">
+        <v>2065536.11</v>
+      </c>
+      <c r="I34">
+        <v>91.93000000000001</v>
+      </c>
+      <c r="J34">
+        <v>7440.09</v>
+      </c>
+      <c r="K34">
+        <v>15.38</v>
+      </c>
+      <c r="L34">
+        <v>1379.38</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>70.23</v>
+      </c>
+      <c r="C35">
+        <v>23.39</v>
+      </c>
+      <c r="D35">
+        <v>19.74</v>
+      </c>
+      <c r="E35">
+        <v>15.22</v>
+      </c>
+      <c r="F35">
+        <v>11.88</v>
+      </c>
+      <c r="G35">
+        <v>22170.5</v>
+      </c>
+      <c r="H35">
+        <v>2065536.11</v>
+      </c>
+      <c r="I35">
+        <v>85.67</v>
+      </c>
+      <c r="J35">
+        <v>7440.09</v>
+      </c>
+      <c r="K35">
+        <v>15.1</v>
+      </c>
+      <c r="L35">
+        <v>1379.38</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="C36">
+        <v>21.26</v>
+      </c>
+      <c r="D36">
+        <v>19.74</v>
+      </c>
+      <c r="E36">
+        <v>15.22</v>
+      </c>
+      <c r="F36">
+        <v>11.88</v>
+      </c>
+      <c r="G36">
+        <v>21637.41</v>
+      </c>
+      <c r="H36">
+        <v>2065536.11</v>
+      </c>
+      <c r="I36">
+        <v>78.88</v>
+      </c>
+      <c r="J36">
+        <v>7440.09</v>
+      </c>
+      <c r="K36">
+        <v>14.64</v>
+      </c>
+      <c r="L36">
+        <v>1379.38</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>66.84999999999999</v>
+      </c>
+      <c r="C37">
+        <v>20.01</v>
+      </c>
+      <c r="D37">
+        <v>19.74</v>
+      </c>
+      <c r="E37">
+        <v>15.22</v>
+      </c>
+      <c r="F37">
+        <v>11.88</v>
+      </c>
+      <c r="G37">
+        <v>21325.61</v>
+      </c>
+      <c r="H37">
+        <v>2065536.11</v>
+      </c>
+      <c r="I37">
+        <v>76.06999999999999</v>
+      </c>
+      <c r="J37">
+        <v>7440.09</v>
+      </c>
+      <c r="K37">
+        <v>14.37</v>
+      </c>
+      <c r="L37">
+        <v>1379.38</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>69.22</v>
+      </c>
+      <c r="C38">
+        <v>22.37</v>
+      </c>
+      <c r="D38">
+        <v>19.74</v>
+      </c>
+      <c r="E38">
+        <v>15.22</v>
+      </c>
+      <c r="F38">
+        <v>11.88</v>
+      </c>
+      <c r="G38">
+        <v>21916.89</v>
+      </c>
+      <c r="H38">
+        <v>2065536.11</v>
+      </c>
+      <c r="I38">
+        <v>82.05</v>
+      </c>
+      <c r="J38">
+        <v>7440.09</v>
+      </c>
+      <c r="K38">
+        <v>14.88</v>
+      </c>
+      <c r="L38">
+        <v>1379.38</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="C39">
+        <v>21.25</v>
+      </c>
+      <c r="D39">
+        <v>18.87</v>
+      </c>
+      <c r="E39">
+        <v>14.43</v>
+      </c>
+      <c r="F39">
+        <v>11.14</v>
+      </c>
+      <c r="G39">
+        <v>21046.36</v>
+      </c>
+      <c r="H39">
+        <v>2065536.11</v>
+      </c>
+      <c r="I39">
+        <v>76.05</v>
+      </c>
+      <c r="J39">
+        <v>7440.09</v>
+      </c>
+      <c r="K39">
+        <v>14.12</v>
+      </c>
+      <c r="L39">
+        <v>1379.38</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>74.93000000000001</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <v>20.85</v>
+      </c>
+      <c r="E40">
+        <v>16.24</v>
+      </c>
+      <c r="F40">
+        <v>12.84</v>
+      </c>
+      <c r="G40">
+        <v>23368.51</v>
+      </c>
+      <c r="H40">
+        <v>2065536.11</v>
+      </c>
+      <c r="I40">
+        <v>97.89</v>
+      </c>
+      <c r="J40">
+        <v>7440.09</v>
+      </c>
+      <c r="K40">
+        <v>16.11</v>
+      </c>
+      <c r="L40">
+        <v>1379.38</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>73.48</v>
+      </c>
+      <c r="C41">
+        <v>25</v>
+      </c>
+      <c r="D41">
+        <v>20.32</v>
+      </c>
+      <c r="E41">
+        <v>15.76</v>
+      </c>
+      <c r="F41">
+        <v>12.39</v>
+      </c>
+      <c r="G41">
+        <v>22987.76</v>
+      </c>
+      <c r="H41">
+        <v>2065536.11</v>
+      </c>
+      <c r="I41">
+        <v>95.84</v>
+      </c>
+      <c r="J41">
+        <v>7440.09</v>
+      </c>
+      <c r="K41">
+        <v>15.8</v>
+      </c>
+      <c r="L41">
+        <v>1379.38</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>72.43000000000001</v>
+      </c>
+      <c r="C42">
+        <v>25</v>
+      </c>
+      <c r="D42">
+        <v>19.95</v>
+      </c>
+      <c r="E42">
+        <v>15.42</v>
+      </c>
+      <c r="F42">
+        <v>12.06</v>
+      </c>
+      <c r="G42">
+        <v>22719.68</v>
+      </c>
+      <c r="H42">
+        <v>2065536.11</v>
+      </c>
+      <c r="I42">
+        <v>94.47</v>
+      </c>
+      <c r="J42">
+        <v>7440.09</v>
+      </c>
+      <c r="K42">
+        <v>15.57</v>
+      </c>
+      <c r="L42">
+        <v>1379.38</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>71.38</v>
+      </c>
+      <c r="C43">
+        <v>24.53</v>
+      </c>
+      <c r="D43">
+        <v>19.74</v>
+      </c>
+      <c r="E43">
+        <v>15.22</v>
+      </c>
+      <c r="F43">
+        <v>11.88</v>
+      </c>
+      <c r="G43">
+        <v>22456.4</v>
+      </c>
+      <c r="H43">
+        <v>2065536.11</v>
+      </c>
+      <c r="I43">
+        <v>91.01000000000001</v>
+      </c>
+      <c r="J43">
+        <v>7440.09</v>
+      </c>
+      <c r="K43">
+        <v>15.35</v>
+      </c>
+      <c r="L43">
+        <v>1379.38</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>70.33</v>
+      </c>
+      <c r="C44">
+        <v>23.48</v>
+      </c>
+      <c r="D44">
+        <v>19.74</v>
+      </c>
+      <c r="E44">
+        <v>15.22</v>
+      </c>
+      <c r="F44">
+        <v>11.88</v>
+      </c>
+      <c r="G44">
+        <v>22193.93</v>
+      </c>
+      <c r="H44">
+        <v>2065536.11</v>
+      </c>
+      <c r="I44">
+        <v>86.06</v>
+      </c>
+      <c r="J44">
+        <v>7440.09</v>
+      </c>
+      <c r="K44">
+        <v>15.12</v>
+      </c>
+      <c r="L44">
+        <v>1379.38</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>67.48</v>
+      </c>
+      <c r="C45">
+        <v>20.64</v>
+      </c>
+      <c r="D45">
+        <v>19.74</v>
+      </c>
+      <c r="E45">
+        <v>15.22</v>
+      </c>
+      <c r="F45">
+        <v>11.88</v>
+      </c>
+      <c r="G45">
+        <v>21483.09</v>
+      </c>
+      <c r="H45">
+        <v>2065536.11</v>
+      </c>
+      <c r="I45">
+        <v>77.41</v>
+      </c>
+      <c r="J45">
+        <v>7440.09</v>
+      </c>
+      <c r="K45">
+        <v>14.51</v>
+      </c>
+      <c r="L45">
+        <v>1379.38</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>69.17</v>
+      </c>
+      <c r="C46">
+        <v>21.74</v>
+      </c>
+      <c r="D46">
+        <v>19.95</v>
+      </c>
+      <c r="E46">
+        <v>15.42</v>
+      </c>
+      <c r="F46">
+        <v>12.07</v>
+      </c>
+      <c r="G46">
+        <v>21906.78</v>
+      </c>
+      <c r="H46">
+        <v>2065536.11</v>
+      </c>
+      <c r="I46">
+        <v>80.91</v>
+      </c>
+      <c r="J46">
+        <v>7440.09</v>
+      </c>
+      <c r="K46">
+        <v>14.87</v>
+      </c>
+      <c r="L46">
+        <v>1379.38</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>64.23999999999999</v>
+      </c>
+      <c r="C47">
+        <v>17.99</v>
+      </c>
+      <c r="D47">
+        <v>19.52</v>
+      </c>
+      <c r="E47">
+        <v>15.03</v>
+      </c>
+      <c r="F47">
+        <v>11.7</v>
+      </c>
+      <c r="G47">
+        <v>20674.65</v>
+      </c>
+      <c r="H47">
+        <v>2065536.11</v>
+      </c>
+      <c r="I47">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="J47">
+        <v>7440.09</v>
+      </c>
+      <c r="K47">
+        <v>13.81</v>
+      </c>
+      <c r="L47">
+        <v>1379.38</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>65.66</v>
+      </c>
+      <c r="C48">
+        <v>18.82</v>
+      </c>
+      <c r="D48">
+        <v>19.74</v>
+      </c>
+      <c r="E48">
+        <v>15.22</v>
+      </c>
+      <c r="F48">
+        <v>11.88</v>
+      </c>
+      <c r="G48">
+        <v>21027.42</v>
+      </c>
+      <c r="H48">
+        <v>2065536.11</v>
+      </c>
+      <c r="I48">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="J48">
+        <v>7440.09</v>
+      </c>
+      <c r="K48">
+        <v>14.12</v>
+      </c>
+      <c r="L48">
+        <v>1379.38</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>64.97</v>
+      </c>
+      <c r="C49">
+        <v>18.12</v>
+      </c>
+      <c r="D49">
+        <v>19.74</v>
+      </c>
+      <c r="E49">
+        <v>15.22</v>
+      </c>
+      <c r="F49">
+        <v>11.88</v>
+      </c>
+      <c r="G49">
+        <v>20854.49</v>
+      </c>
+      <c r="H49">
+        <v>2065536.11</v>
+      </c>
+      <c r="I49">
+        <v>72.81</v>
+      </c>
+      <c r="J49">
+        <v>7440.09</v>
+      </c>
+      <c r="K49">
+        <v>13.97</v>
+      </c>
+      <c r="L49">
+        <v>1379.38</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>63.98</v>
+      </c>
+      <c r="C50">
+        <v>17.14</v>
+      </c>
+      <c r="D50">
+        <v>19.74</v>
+      </c>
+      <c r="E50">
+        <v>15.22</v>
+      </c>
+      <c r="F50">
+        <v>11.88</v>
+      </c>
+      <c r="G50">
+        <v>20608.2</v>
+      </c>
+      <c r="H50">
+        <v>2065536.11</v>
+      </c>
+      <c r="I50">
+        <v>71.45</v>
+      </c>
+      <c r="J50">
+        <v>7440.09</v>
+      </c>
+      <c r="K50">
+        <v>13.76</v>
+      </c>
+      <c r="L50">
+        <v>1379.38</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>64.94</v>
+      </c>
+      <c r="C51">
+        <v>18.09</v>
+      </c>
+      <c r="D51">
+        <v>19.74</v>
+      </c>
+      <c r="E51">
+        <v>15.22</v>
+      </c>
+      <c r="F51">
+        <v>11.88</v>
+      </c>
+      <c r="G51">
+        <v>20846.97</v>
+      </c>
+      <c r="H51">
+        <v>2065536.11</v>
+      </c>
+      <c r="I51">
+        <v>72.77</v>
+      </c>
+      <c r="J51">
+        <v>7440.09</v>
+      </c>
+      <c r="K51">
+        <v>13.96</v>
+      </c>
+      <c r="L51">
+        <v>1379.38</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>63.48</v>
+      </c>
+      <c r="C52">
+        <v>16.64</v>
+      </c>
+      <c r="D52">
+        <v>19.74</v>
+      </c>
+      <c r="E52">
+        <v>15.22</v>
+      </c>
+      <c r="F52">
+        <v>11.88</v>
+      </c>
+      <c r="G52">
+        <v>20482.43</v>
+      </c>
+      <c r="H52">
+        <v>2065536.11</v>
+      </c>
+      <c r="I52">
+        <v>70.81999999999999</v>
+      </c>
+      <c r="J52">
+        <v>7440.09</v>
+      </c>
+      <c r="K52">
+        <v>13.65</v>
+      </c>
+      <c r="L52">
+        <v>1379.38</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>62.08</v>
+      </c>
+      <c r="C53">
+        <v>15.24</v>
+      </c>
+      <c r="D53">
+        <v>19.74</v>
+      </c>
+      <c r="E53">
+        <v>15.22</v>
+      </c>
+      <c r="F53">
+        <v>11.88</v>
+      </c>
+      <c r="G53">
+        <v>20132.48</v>
+      </c>
+      <c r="H53">
+        <v>2065536.11</v>
+      </c>
+      <c r="I53">
+        <v>69.28</v>
+      </c>
+      <c r="J53">
+        <v>7440.09</v>
+      </c>
+      <c r="K53">
+        <v>13.35</v>
+      </c>
+      <c r="L53">
+        <v>1379.38</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>65.09</v>
+      </c>
+      <c r="C54">
+        <v>18.25</v>
+      </c>
+      <c r="D54">
+        <v>19.74</v>
+      </c>
+      <c r="E54">
+        <v>15.22</v>
+      </c>
+      <c r="F54">
+        <v>11.88</v>
+      </c>
+      <c r="G54">
+        <v>20885.25</v>
+      </c>
+      <c r="H54">
+        <v>2065536.11</v>
+      </c>
+      <c r="I54">
+        <v>73</v>
+      </c>
+      <c r="J54">
+        <v>7440.09</v>
+      </c>
+      <c r="K54">
+        <v>13.99</v>
+      </c>
+      <c r="L54">
+        <v>1379.38</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>62.93</v>
+      </c>
+      <c r="C55">
+        <v>16.09</v>
+      </c>
+      <c r="D55">
+        <v>19.74</v>
+      </c>
+      <c r="E55">
+        <v>15.22</v>
+      </c>
+      <c r="F55">
+        <v>11.88</v>
+      </c>
+      <c r="G55">
+        <v>20345.73</v>
+      </c>
+      <c r="H55">
+        <v>2065536.11</v>
+      </c>
+      <c r="I55">
+        <v>70.19</v>
+      </c>
+      <c r="J55">
+        <v>7440.09</v>
+      </c>
+      <c r="K55">
+        <v>13.53</v>
+      </c>
+      <c r="L55">
+        <v>1379.38</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>65.65000000000001</v>
+      </c>
+      <c r="C56">
+        <v>18.8</v>
+      </c>
+      <c r="D56">
+        <v>19.74</v>
+      </c>
+      <c r="E56">
+        <v>15.22</v>
+      </c>
+      <c r="F56">
+        <v>11.88</v>
+      </c>
+      <c r="G56">
+        <v>21024.26</v>
+      </c>
+      <c r="H56">
+        <v>2065536.11</v>
+      </c>
+      <c r="I56">
+        <v>73.88</v>
+      </c>
+      <c r="J56">
+        <v>7440.09</v>
+      </c>
+      <c r="K56">
+        <v>14.11</v>
+      </c>
+      <c r="L56">
+        <v>1379.38</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>65.92</v>
+      </c>
+      <c r="C57">
+        <v>19.08</v>
+      </c>
+      <c r="D57">
+        <v>19.74</v>
+      </c>
+      <c r="E57">
+        <v>15.22</v>
+      </c>
+      <c r="F57">
+        <v>11.88</v>
+      </c>
+      <c r="G57">
+        <v>21093.14</v>
+      </c>
+      <c r="H57">
+        <v>2065536.11</v>
+      </c>
+      <c r="I57">
+        <v>74.34</v>
+      </c>
+      <c r="J57">
+        <v>7440.09</v>
+      </c>
+      <c r="K57">
+        <v>14.17</v>
+      </c>
+      <c r="L57">
+        <v>1379.38</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>68.42</v>
+      </c>
+      <c r="C58">
+        <v>21.57</v>
+      </c>
+      <c r="D58">
+        <v>19.74</v>
+      </c>
+      <c r="E58">
+        <v>15.22</v>
+      </c>
+      <c r="F58">
+        <v>11.88</v>
+      </c>
+      <c r="G58">
+        <v>21716.39</v>
+      </c>
+      <c r="H58">
+        <v>2065536.11</v>
+      </c>
+      <c r="I58">
+        <v>79.70999999999999</v>
+      </c>
+      <c r="J58">
+        <v>7440.09</v>
+      </c>
+      <c r="K58">
+        <v>14.71</v>
+      </c>
+      <c r="L58">
+        <v>1379.38</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>67.31</v>
+      </c>
+      <c r="C59">
+        <v>21.25</v>
+      </c>
+      <c r="D59">
+        <v>19.45</v>
+      </c>
+      <c r="E59">
+        <v>14.96</v>
+      </c>
+      <c r="F59">
+        <v>11.64</v>
+      </c>
+      <c r="G59">
+        <v>21440.82</v>
+      </c>
+      <c r="H59">
+        <v>2065536.11</v>
+      </c>
+      <c r="I59">
+        <v>77.91</v>
+      </c>
+      <c r="J59">
+        <v>7440.09</v>
+      </c>
+      <c r="K59">
+        <v>14.47</v>
+      </c>
+      <c r="L59">
+        <v>1379.38</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>73.95999999999999</v>
+      </c>
+      <c r="C60">
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <v>20.5</v>
+      </c>
+      <c r="E60">
+        <v>15.92</v>
+      </c>
+      <c r="F60">
+        <v>12.54</v>
+      </c>
+      <c r="G60">
+        <v>23112.43</v>
+      </c>
+      <c r="H60">
+        <v>2065536.11</v>
+      </c>
+      <c r="I60">
+        <v>96.5</v>
+      </c>
+      <c r="J60">
+        <v>7440.09</v>
+      </c>
+      <c r="K60">
+        <v>15.9</v>
+      </c>
+      <c r="L60">
+        <v>1379.38</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>72.67</v>
+      </c>
+      <c r="C61">
+        <v>25</v>
+      </c>
+      <c r="D61">
+        <v>20.03</v>
+      </c>
+      <c r="E61">
+        <v>15.49</v>
+      </c>
+      <c r="F61">
+        <v>12.14</v>
+      </c>
+      <c r="G61">
+        <v>22780.64</v>
+      </c>
+      <c r="H61">
+        <v>2065536.11</v>
+      </c>
+      <c r="I61">
+        <v>94.78</v>
+      </c>
+      <c r="J61">
+        <v>7440.09</v>
+      </c>
+      <c r="K61">
         <v>15.62</v>
       </c>
-      <c r="F18">
-        <v>145.71</v>
-      </c>
-      <c r="G18">
-        <v>2331.29</v>
-      </c>
-      <c r="H18">
-        <v>68.84</v>
-      </c>
-      <c r="I18">
-        <v>1101.45</v>
-      </c>
-      <c r="J18">
-        <v>10.08</v>
-      </c>
-      <c r="K18">
-        <v>161.25</v>
-      </c>
-      <c r="L18">
-        <v>0.75</v>
-      </c>
-      <c r="M18">
-        <v>0.38</v>
-      </c>
-      <c r="N18">
-        <v>0.5600000000000001</v>
+      <c r="L61">
+        <v>1379.38</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>71.33</v>
+      </c>
+      <c r="C62">
+        <v>24.49</v>
+      </c>
+      <c r="D62">
+        <v>19.74</v>
+      </c>
+      <c r="E62">
+        <v>15.22</v>
+      </c>
+      <c r="F62">
+        <v>11.88</v>
+      </c>
+      <c r="G62">
+        <v>22445.46</v>
+      </c>
+      <c r="H62">
+        <v>2065536.11</v>
+      </c>
+      <c r="I62">
+        <v>90.78</v>
+      </c>
+      <c r="J62">
+        <v>7440.09</v>
+      </c>
+      <c r="K62">
+        <v>15.34</v>
+      </c>
+      <c r="L62">
+        <v>1379.38</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>69.98</v>
+      </c>
+      <c r="C63">
+        <v>22.55</v>
+      </c>
+      <c r="D63">
+        <v>19.95</v>
+      </c>
+      <c r="E63">
+        <v>15.42</v>
+      </c>
+      <c r="F63">
+        <v>12.07</v>
+      </c>
+      <c r="G63">
+        <v>22107.27</v>
+      </c>
+      <c r="H63">
+        <v>2065536.11</v>
+      </c>
+      <c r="I63">
+        <v>83.34999999999999</v>
+      </c>
+      <c r="J63">
+        <v>7440.09</v>
+      </c>
+      <c r="K63">
+        <v>15.04</v>
+      </c>
+      <c r="L63">
+        <v>1379.38</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>65.05</v>
+      </c>
+      <c r="C64">
+        <v>18.8</v>
+      </c>
+      <c r="D64">
+        <v>19.52</v>
+      </c>
+      <c r="E64">
+        <v>15.03</v>
+      </c>
+      <c r="F64">
+        <v>11.7</v>
+      </c>
+      <c r="G64">
+        <v>20876.18</v>
+      </c>
+      <c r="H64">
+        <v>2065536.11</v>
+      </c>
+      <c r="I64">
+        <v>73.15000000000001</v>
+      </c>
+      <c r="J64">
+        <v>7440.09</v>
+      </c>
+      <c r="K64">
+        <v>13.99</v>
+      </c>
+      <c r="L64">
+        <v>1379.38</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>64.01000000000001</v>
+      </c>
+      <c r="C65">
+        <v>17.17</v>
+      </c>
+      <c r="D65">
+        <v>19.74</v>
+      </c>
+      <c r="E65">
+        <v>15.22</v>
+      </c>
+      <c r="F65">
+        <v>11.88</v>
+      </c>
+      <c r="G65">
+        <v>20615.49</v>
+      </c>
+      <c r="H65">
+        <v>2065536.11</v>
+      </c>
+      <c r="I65">
+        <v>71.48999999999999</v>
+      </c>
+      <c r="J65">
+        <v>7440.09</v>
+      </c>
+      <c r="K65">
+        <v>13.76</v>
+      </c>
+      <c r="L65">
+        <v>1379.38</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>62.62</v>
+      </c>
+      <c r="C66">
+        <v>15.78</v>
+      </c>
+      <c r="D66">
+        <v>19.74</v>
+      </c>
+      <c r="E66">
+        <v>15.22</v>
+      </c>
+      <c r="F66">
+        <v>11.88</v>
+      </c>
+      <c r="G66">
+        <v>20267.62</v>
+      </c>
+      <c r="H66">
+        <v>2065536.11</v>
+      </c>
+      <c r="I66">
+        <v>69.84</v>
+      </c>
+      <c r="J66">
+        <v>7440.09</v>
+      </c>
+      <c r="K66">
+        <v>13.46</v>
+      </c>
+      <c r="L66">
+        <v>1379.38</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>61.55</v>
+      </c>
+      <c r="C67">
+        <v>14.7</v>
+      </c>
+      <c r="D67">
+        <v>19.74</v>
+      </c>
+      <c r="E67">
+        <v>15.22</v>
+      </c>
+      <c r="F67">
+        <v>11.88</v>
+      </c>
+      <c r="G67">
+        <v>19999.42</v>
+      </c>
+      <c r="H67">
+        <v>2065536.11</v>
+      </c>
+      <c r="I67">
+        <v>68.76000000000001</v>
+      </c>
+      <c r="J67">
+        <v>7440.09</v>
+      </c>
+      <c r="K67">
+        <v>13.23</v>
+      </c>
+      <c r="L67">
+        <v>1379.38</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>60.6</v>
+      </c>
+      <c r="C68">
+        <v>13.76</v>
+      </c>
+      <c r="D68">
+        <v>19.74</v>
+      </c>
+      <c r="E68">
+        <v>15.22</v>
+      </c>
+      <c r="F68">
+        <v>11.88</v>
+      </c>
+      <c r="G68">
+        <v>19762.47</v>
+      </c>
+      <c r="H68">
+        <v>2065536.11</v>
+      </c>
+      <c r="I68">
+        <v>67.91</v>
+      </c>
+      <c r="J68">
+        <v>7440.09</v>
+      </c>
+      <c r="K68">
+        <v>13.03</v>
+      </c>
+      <c r="L68">
+        <v>1379.38</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>59.55</v>
+      </c>
+      <c r="C69">
+        <v>12.71</v>
+      </c>
+      <c r="D69">
+        <v>19.74</v>
+      </c>
+      <c r="E69">
+        <v>15.22</v>
+      </c>
+      <c r="F69">
+        <v>11.88</v>
+      </c>
+      <c r="G69">
+        <v>19500.01</v>
+      </c>
+      <c r="H69">
+        <v>2065536.11</v>
+      </c>
+      <c r="I69">
+        <v>67.06999999999999</v>
+      </c>
+      <c r="J69">
+        <v>7440.09</v>
+      </c>
+      <c r="K69">
+        <v>12.8</v>
+      </c>
+      <c r="L69">
+        <v>1379.38</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>58.5</v>
+      </c>
+      <c r="C70">
+        <v>11.66</v>
+      </c>
+      <c r="D70">
+        <v>19.74</v>
+      </c>
+      <c r="E70">
+        <v>15.22</v>
+      </c>
+      <c r="F70">
+        <v>11.88</v>
+      </c>
+      <c r="G70">
+        <v>19237.54</v>
+      </c>
+      <c r="H70">
+        <v>2065536.11</v>
+      </c>
+      <c r="I70">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="J70">
+        <v>7440.09</v>
+      </c>
+      <c r="K70">
+        <v>12.58</v>
+      </c>
+      <c r="L70">
+        <v>1379.38</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>57.45</v>
+      </c>
+      <c r="C71">
+        <v>10.61</v>
+      </c>
+      <c r="D71">
+        <v>19.74</v>
+      </c>
+      <c r="E71">
+        <v>15.22</v>
+      </c>
+      <c r="F71">
+        <v>11.88</v>
+      </c>
+      <c r="G71">
+        <v>18975.08</v>
+      </c>
+      <c r="H71">
+        <v>2065536.11</v>
+      </c>
+      <c r="I71">
+        <v>65.65000000000001</v>
+      </c>
+      <c r="J71">
+        <v>7440.09</v>
+      </c>
+      <c r="K71">
+        <v>12.35</v>
+      </c>
+      <c r="L71">
+        <v>1379.38</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>56.4</v>
+      </c>
+      <c r="C72">
+        <v>9.56</v>
+      </c>
+      <c r="D72">
+        <v>19.74</v>
+      </c>
+      <c r="E72">
+        <v>15.22</v>
+      </c>
+      <c r="F72">
+        <v>11.88</v>
+      </c>
+      <c r="G72">
+        <v>18712.61</v>
+      </c>
+      <c r="H72">
+        <v>2065536.11</v>
+      </c>
+      <c r="I72">
+        <v>65.03</v>
+      </c>
+      <c r="J72">
+        <v>7440.09</v>
+      </c>
+      <c r="K72">
+        <v>12.13</v>
+      </c>
+      <c r="L72">
+        <v>1379.38</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>55.35</v>
+      </c>
+      <c r="C73">
+        <v>8.51</v>
+      </c>
+      <c r="D73">
+        <v>19.74</v>
+      </c>
+      <c r="E73">
+        <v>15.22</v>
+      </c>
+      <c r="F73">
+        <v>11.88</v>
+      </c>
+      <c r="G73">
+        <v>18450.14</v>
+      </c>
+      <c r="H73">
+        <v>2065536.11</v>
+      </c>
+      <c r="I73">
+        <v>64.48</v>
+      </c>
+      <c r="J73">
+        <v>7440.09</v>
+      </c>
+      <c r="K73">
+        <v>11.9</v>
+      </c>
+      <c r="L73">
+        <v>1379.38</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>54.3</v>
+      </c>
+      <c r="C74">
+        <v>7.46</v>
+      </c>
+      <c r="D74">
+        <v>19.74</v>
+      </c>
+      <c r="E74">
+        <v>15.22</v>
+      </c>
+      <c r="F74">
+        <v>11.88</v>
+      </c>
+      <c r="G74">
+        <v>18187.68</v>
+      </c>
+      <c r="H74">
+        <v>2065536.11</v>
+      </c>
+      <c r="I74">
+        <v>63.97</v>
+      </c>
+      <c r="J74">
+        <v>7440.09</v>
+      </c>
+      <c r="K74">
+        <v>11.67</v>
+      </c>
+      <c r="L74">
+        <v>1379.38</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>53.4</v>
+      </c>
+      <c r="C75">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="D75">
+        <v>18.99</v>
+      </c>
+      <c r="E75">
+        <v>14.54</v>
+      </c>
+      <c r="F75">
+        <v>11.24</v>
+      </c>
+      <c r="G75">
+        <v>17971.98</v>
+      </c>
+      <c r="H75">
+        <v>2065536.11</v>
+      </c>
+      <c r="I75">
+        <v>62.09</v>
+      </c>
+      <c r="J75">
+        <v>7440.09</v>
+      </c>
+      <c r="K75">
+        <v>11.48</v>
+      </c>
+      <c r="L75">
+        <v>1379.38</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>61.26</v>
+      </c>
+      <c r="C76">
+        <v>12.39</v>
+      </c>
+      <c r="D76">
+        <v>20.47</v>
+      </c>
+      <c r="E76">
+        <v>15.89</v>
+      </c>
+      <c r="F76">
+        <v>12.51</v>
+      </c>
+      <c r="G76">
+        <v>19937.39</v>
+      </c>
+      <c r="H76">
+        <v>2065536.11</v>
+      </c>
+      <c r="I76">
+        <v>69.48999999999999</v>
+      </c>
+      <c r="J76">
+        <v>7440.09</v>
+      </c>
+      <c r="K76">
+        <v>13.17</v>
+      </c>
+      <c r="L76">
+        <v>1379.38</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>60.1</v>
+      </c>
+      <c r="C77">
+        <v>13.26</v>
+      </c>
+      <c r="D77">
+        <v>19.74</v>
+      </c>
+      <c r="E77">
+        <v>15.22</v>
+      </c>
+      <c r="F77">
+        <v>11.88</v>
+      </c>
+      <c r="G77">
+        <v>19638.53</v>
+      </c>
+      <c r="H77">
+        <v>2065536.11</v>
+      </c>
+      <c r="I77">
+        <v>67.5</v>
+      </c>
+      <c r="J77">
+        <v>7440.09</v>
+      </c>
+      <c r="K77">
+        <v>12.92</v>
+      </c>
+      <c r="L77">
+        <v>1379.38</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>59.21</v>
+      </c>
+      <c r="C78">
+        <v>12.49</v>
+      </c>
+      <c r="D78">
+        <v>19.69</v>
+      </c>
+      <c r="E78">
+        <v>15.19</v>
+      </c>
+      <c r="F78">
+        <v>11.85</v>
+      </c>
+      <c r="G78">
+        <v>19416.2</v>
+      </c>
+      <c r="H78">
+        <v>2065536.11</v>
+      </c>
+      <c r="I78">
+        <v>66.76000000000001</v>
+      </c>
+      <c r="J78">
+        <v>7440.09</v>
+      </c>
+      <c r="K78">
+        <v>12.73</v>
+      </c>
+      <c r="L78">
+        <v>1379.38</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>63.2</v>
+      </c>
+      <c r="C79">
+        <v>16.24</v>
+      </c>
+      <c r="D79">
+        <v>19.78</v>
+      </c>
+      <c r="E79">
+        <v>15.26</v>
+      </c>
+      <c r="F79">
+        <v>11.92</v>
+      </c>
+      <c r="G79">
+        <v>20412.29</v>
+      </c>
+      <c r="H79">
+        <v>2065536.11</v>
+      </c>
+      <c r="I79">
+        <v>70.5</v>
+      </c>
+      <c r="J79">
+        <v>7440.09</v>
+      </c>
+      <c r="K79">
+        <v>13.59</v>
+      </c>
+      <c r="L79">
+        <v>1379.38</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>61.74</v>
+      </c>
+      <c r="C80">
+        <v>14.9</v>
+      </c>
+      <c r="D80">
+        <v>19.74</v>
+      </c>
+      <c r="E80">
+        <v>15.22</v>
+      </c>
+      <c r="F80">
+        <v>11.88</v>
+      </c>
+      <c r="G80">
+        <v>20048.27</v>
+      </c>
+      <c r="H80">
+        <v>2065536.11</v>
+      </c>
+      <c r="I80">
+        <v>68.95</v>
+      </c>
+      <c r="J80">
+        <v>7440.09</v>
+      </c>
+      <c r="K80">
+        <v>13.27</v>
+      </c>
+      <c r="L80">
+        <v>1379.38</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>60.21</v>
+      </c>
+      <c r="C81">
+        <v>13.36</v>
+      </c>
+      <c r="D81">
+        <v>19.74</v>
+      </c>
+      <c r="E81">
+        <v>15.22</v>
+      </c>
+      <c r="F81">
+        <v>11.88</v>
+      </c>
+      <c r="G81">
+        <v>19664.05</v>
+      </c>
+      <c r="H81">
+        <v>2065536.11</v>
+      </c>
+      <c r="I81">
+        <v>67.59</v>
+      </c>
+      <c r="J81">
+        <v>7440.09</v>
+      </c>
+      <c r="K81">
+        <v>12.94</v>
+      </c>
+      <c r="L81">
+        <v>1379.38</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>62.8</v>
+      </c>
+      <c r="C82">
+        <v>15.95</v>
+      </c>
+      <c r="D82">
+        <v>19.74</v>
+      </c>
+      <c r="E82">
+        <v>15.22</v>
+      </c>
+      <c r="F82">
+        <v>11.88</v>
+      </c>
+      <c r="G82">
+        <v>20311.71</v>
+      </c>
+      <c r="H82">
+        <v>2065536.11</v>
+      </c>
+      <c r="I82">
+        <v>70.03</v>
+      </c>
+      <c r="J82">
+        <v>7440.09</v>
+      </c>
+      <c r="K82">
+        <v>13.5</v>
+      </c>
+      <c r="L82">
+        <v>1379.38</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>64.16</v>
+      </c>
+      <c r="C83">
+        <v>17.31</v>
+      </c>
+      <c r="D83">
+        <v>19.74</v>
+      </c>
+      <c r="E83">
+        <v>15.22</v>
+      </c>
+      <c r="F83">
+        <v>11.88</v>
+      </c>
+      <c r="G83">
+        <v>20651.94</v>
+      </c>
+      <c r="H83">
+        <v>2065536.11</v>
+      </c>
+      <c r="I83">
+        <v>71.68000000000001</v>
+      </c>
+      <c r="J83">
+        <v>7440.09</v>
+      </c>
+      <c r="K83">
+        <v>13.79</v>
+      </c>
+      <c r="L83">
+        <v>1379.38</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>61.24</v>
+      </c>
+      <c r="C84">
+        <v>14.4</v>
+      </c>
+      <c r="D84">
+        <v>19.74</v>
+      </c>
+      <c r="E84">
+        <v>15.22</v>
+      </c>
+      <c r="F84">
+        <v>11.88</v>
+      </c>
+      <c r="G84">
+        <v>19922.87</v>
+      </c>
+      <c r="H84">
+        <v>2065536.11</v>
+      </c>
+      <c r="I84">
+        <v>68.48</v>
+      </c>
+      <c r="J84">
+        <v>7440.09</v>
+      </c>
+      <c r="K84">
+        <v>13.17</v>
+      </c>
+      <c r="L84">
+        <v>1379.38</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>59.67</v>
+      </c>
+      <c r="C85">
+        <v>12.83</v>
+      </c>
+      <c r="D85">
+        <v>19.74</v>
+      </c>
+      <c r="E85">
+        <v>15.22</v>
+      </c>
+      <c r="F85">
+        <v>11.88</v>
+      </c>
+      <c r="G85">
+        <v>19530.99</v>
+      </c>
+      <c r="H85">
+        <v>2065536.11</v>
+      </c>
+      <c r="I85">
+        <v>67.17</v>
+      </c>
+      <c r="J85">
+        <v>7440.09</v>
+      </c>
+      <c r="K85">
+        <v>12.83</v>
+      </c>
+      <c r="L85">
+        <v>1379.38</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>58.71</v>
+      </c>
+      <c r="C86">
+        <v>11.87</v>
+      </c>
+      <c r="D86">
+        <v>19.74</v>
+      </c>
+      <c r="E86">
+        <v>15.22</v>
+      </c>
+      <c r="F86">
+        <v>11.88</v>
+      </c>
+      <c r="G86">
+        <v>19290.4</v>
+      </c>
+      <c r="H86">
+        <v>2065536.11</v>
+      </c>
+      <c r="I86">
+        <v>66.47</v>
+      </c>
+      <c r="J86">
+        <v>7440.09</v>
+      </c>
+      <c r="K86">
+        <v>12.62</v>
+      </c>
+      <c r="L86">
+        <v>1379.38</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>57.74</v>
+      </c>
+      <c r="C87">
+        <v>10.89</v>
+      </c>
+      <c r="D87">
+        <v>19.74</v>
+      </c>
+      <c r="E87">
+        <v>15.22</v>
+      </c>
+      <c r="F87">
+        <v>11.88</v>
+      </c>
+      <c r="G87">
+        <v>19046.77</v>
+      </c>
+      <c r="H87">
+        <v>2065536.11</v>
+      </c>
+      <c r="I87">
+        <v>65.81999999999999</v>
+      </c>
+      <c r="J87">
+        <v>7440.09</v>
+      </c>
+      <c r="K87">
+        <v>12.41</v>
+      </c>
+      <c r="L87">
+        <v>1379.38</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>56.59</v>
+      </c>
+      <c r="C88">
+        <v>9.75</v>
+      </c>
+      <c r="D88">
+        <v>19.74</v>
+      </c>
+      <c r="E88">
+        <v>15.22</v>
+      </c>
+      <c r="F88">
+        <v>11.88</v>
+      </c>
+      <c r="G88">
+        <v>18760</v>
+      </c>
+      <c r="H88">
+        <v>2065536.11</v>
+      </c>
+      <c r="I88">
+        <v>65.14</v>
+      </c>
+      <c r="J88">
+        <v>7440.09</v>
+      </c>
+      <c r="K88">
+        <v>12.17</v>
+      </c>
+      <c r="L88">
+        <v>1379.38</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>55.5</v>
+      </c>
+      <c r="C89">
+        <v>8.65</v>
+      </c>
+      <c r="D89">
+        <v>19.74</v>
+      </c>
+      <c r="E89">
+        <v>15.22</v>
+      </c>
+      <c r="F89">
+        <v>11.88</v>
+      </c>
+      <c r="G89">
+        <v>18486.6</v>
+      </c>
+      <c r="H89">
+        <v>2065536.11</v>
+      </c>
+      <c r="I89">
+        <v>64.55</v>
+      </c>
+      <c r="J89">
+        <v>7440.09</v>
+      </c>
+      <c r="K89">
+        <v>11.93</v>
+      </c>
+      <c r="L89">
+        <v>1379.38</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>54.21</v>
+      </c>
+      <c r="C90">
+        <v>10.06</v>
+      </c>
+      <c r="D90">
+        <v>18.76</v>
+      </c>
+      <c r="E90">
+        <v>14.33</v>
+      </c>
+      <c r="F90">
+        <v>11.05</v>
+      </c>
+      <c r="G90">
+        <v>18181.28</v>
+      </c>
+      <c r="H90">
+        <v>2065536.11</v>
+      </c>
+      <c r="I90">
+        <v>62.19</v>
+      </c>
+      <c r="J90">
+        <v>7440.09</v>
+      </c>
+      <c r="K90">
+        <v>11.65</v>
+      </c>
+      <c r="L90">
+        <v>1379.38</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>63.27</v>
+      </c>
+      <c r="C91">
+        <v>13.81</v>
+      </c>
+      <c r="D91">
+        <v>20.68</v>
+      </c>
+      <c r="E91">
+        <v>16.08</v>
+      </c>
+      <c r="F91">
+        <v>12.69</v>
+      </c>
+      <c r="G91">
+        <v>20446.11</v>
+      </c>
+      <c r="H91">
+        <v>2065536.11</v>
+      </c>
+      <c r="I91">
+        <v>71.42</v>
+      </c>
+      <c r="J91">
+        <v>7440.09</v>
+      </c>
+      <c r="K91">
+        <v>13.6</v>
+      </c>
+      <c r="L91">
+        <v>1379.38</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>61.31</v>
+      </c>
+      <c r="C92">
+        <v>14.47</v>
+      </c>
+      <c r="D92">
+        <v>19.74</v>
+      </c>
+      <c r="E92">
+        <v>15.22</v>
+      </c>
+      <c r="F92">
+        <v>11.88</v>
+      </c>
+      <c r="G92">
+        <v>19940.19</v>
+      </c>
+      <c r="H92">
+        <v>2065536.11</v>
+      </c>
+      <c r="I92">
+        <v>68.54000000000001</v>
+      </c>
+      <c r="J92">
+        <v>7440.09</v>
+      </c>
+      <c r="K92">
+        <v>13.18</v>
+      </c>
+      <c r="L92">
+        <v>1379.38</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>59.58</v>
+      </c>
+      <c r="C93">
+        <v>15.15</v>
+      </c>
+      <c r="D93">
+        <v>18.86</v>
+      </c>
+      <c r="E93">
+        <v>14.43</v>
+      </c>
+      <c r="F93">
+        <v>11.13</v>
+      </c>
+      <c r="G93">
+        <v>19521.19</v>
+      </c>
+      <c r="H93">
+        <v>2065536.11</v>
+      </c>
+      <c r="I93">
+        <v>66.37</v>
+      </c>
+      <c r="J93">
+        <v>7440.09</v>
+      </c>
+      <c r="K93">
+        <v>12.81</v>
+      </c>
+      <c r="L93">
+        <v>1379.38</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>68.09</v>
+      </c>
+      <c r="C94">
+        <v>18.9</v>
+      </c>
+      <c r="D94">
+        <v>20.58</v>
+      </c>
+      <c r="E94">
+        <v>16</v>
+      </c>
+      <c r="F94">
+        <v>12.61</v>
+      </c>
+      <c r="G94">
+        <v>21649.53</v>
+      </c>
+      <c r="H94">
+        <v>2065536.11</v>
+      </c>
+      <c r="I94">
+        <v>77.14</v>
+      </c>
+      <c r="J94">
+        <v>7440.09</v>
+      </c>
+      <c r="K94">
+        <v>14.64</v>
+      </c>
+      <c r="L94">
+        <v>1379.38</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>66.91</v>
+      </c>
+      <c r="C95">
+        <v>20.07</v>
+      </c>
+      <c r="D95">
+        <v>19.74</v>
+      </c>
+      <c r="E95">
+        <v>15.22</v>
+      </c>
+      <c r="F95">
+        <v>11.88</v>
+      </c>
+      <c r="G95">
+        <v>21340.92</v>
+      </c>
+      <c r="H95">
+        <v>2065536.11</v>
+      </c>
+      <c r="I95">
+        <v>76.2</v>
+      </c>
+      <c r="J95">
+        <v>7440.09</v>
+      </c>
+      <c r="K95">
+        <v>14.39</v>
+      </c>
+      <c r="L95">
+        <v>1379.38</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>65.83</v>
+      </c>
+      <c r="C96">
+        <v>18.99</v>
+      </c>
+      <c r="D96">
+        <v>19.74</v>
+      </c>
+      <c r="E96">
+        <v>15.22</v>
+      </c>
+      <c r="F96">
+        <v>11.88</v>
+      </c>
+      <c r="G96">
+        <v>21071.16</v>
+      </c>
+      <c r="H96">
+        <v>2065536.11</v>
+      </c>
+      <c r="I96">
+        <v>74.19</v>
+      </c>
+      <c r="J96">
+        <v>7440.09</v>
+      </c>
+      <c r="K96">
+        <v>14.15</v>
+      </c>
+      <c r="L96">
+        <v>1379.38</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>64.43000000000001</v>
+      </c>
+      <c r="C97">
+        <v>16.84</v>
+      </c>
+      <c r="D97">
+        <v>20</v>
+      </c>
+      <c r="E97">
+        <v>15.47</v>
+      </c>
+      <c r="F97">
+        <v>12.11</v>
+      </c>
+      <c r="G97">
+        <v>20720.34</v>
+      </c>
+      <c r="H97">
+        <v>2065536.11</v>
+      </c>
+      <c r="I97">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="J97">
+        <v>7440.09</v>
+      </c>
+      <c r="K97">
+        <v>13.85</v>
+      </c>
+      <c r="L97">
+        <v>1379.38</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>59.19</v>
+      </c>
+      <c r="C98">
+        <v>13.09</v>
+      </c>
+      <c r="D98">
+        <v>19.47</v>
+      </c>
+      <c r="E98">
+        <v>14.98</v>
+      </c>
+      <c r="F98">
+        <v>11.65</v>
+      </c>
+      <c r="G98">
+        <v>19410.21</v>
+      </c>
+      <c r="H98">
+        <v>2065536.11</v>
+      </c>
+      <c r="I98">
+        <v>66.45999999999999</v>
+      </c>
+      <c r="J98">
+        <v>7440.09</v>
+      </c>
+      <c r="K98">
+        <v>12.72</v>
+      </c>
+      <c r="L98">
+        <v>1379.38</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>62.84</v>
+      </c>
+      <c r="C99">
+        <v>16</v>
+      </c>
+      <c r="D99">
+        <v>19.74</v>
+      </c>
+      <c r="E99">
+        <v>15.22</v>
+      </c>
+      <c r="F99">
+        <v>11.88</v>
+      </c>
+      <c r="G99">
+        <v>20322.99</v>
+      </c>
+      <c r="H99">
+        <v>2065536.11</v>
+      </c>
+      <c r="I99">
+        <v>70.08</v>
+      </c>
+      <c r="J99">
+        <v>7440.09</v>
+      </c>
+      <c r="K99">
+        <v>13.51</v>
+      </c>
+      <c r="L99">
+        <v>1379.38</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>61.11</v>
+      </c>
+      <c r="C100">
+        <v>14.13</v>
+      </c>
+      <c r="D100">
+        <v>19.79</v>
+      </c>
+      <c r="E100">
+        <v>15.27</v>
+      </c>
+      <c r="F100">
+        <v>11.93</v>
+      </c>
+      <c r="G100">
+        <v>19890.84</v>
+      </c>
+      <c r="H100">
+        <v>2065536.11</v>
+      </c>
+      <c r="I100">
+        <v>68.41</v>
+      </c>
+      <c r="J100">
+        <v>7440.09</v>
+      </c>
+      <c r="K100">
+        <v>13.14</v>
+      </c>
+      <c r="L100">
+        <v>1379.38</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>57.09</v>
+      </c>
+      <c r="C101">
+        <v>10.38</v>
+      </c>
+      <c r="D101">
+        <v>19.69</v>
+      </c>
+      <c r="E101">
+        <v>15.18</v>
+      </c>
+      <c r="F101">
+        <v>11.84</v>
+      </c>
+      <c r="G101">
+        <v>18883.99</v>
+      </c>
+      <c r="H101">
+        <v>2065536.11</v>
+      </c>
+      <c r="I101">
+        <v>65.34</v>
+      </c>
+      <c r="J101">
+        <v>7440.09</v>
+      </c>
+      <c r="K101">
+        <v>12.27</v>
+      </c>
+      <c r="L101">
+        <v>1379.38</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B102">
+        <v>64.16</v>
+      </c>
+      <c r="C102">
+        <v>17.25</v>
+      </c>
+      <c r="D102">
+        <v>19.76</v>
+      </c>
+      <c r="E102">
+        <v>15.24</v>
+      </c>
+      <c r="F102">
+        <v>11.9</v>
+      </c>
+      <c r="G102">
+        <v>20655.36</v>
+      </c>
+      <c r="H102">
+        <v>2065536.11</v>
+      </c>
+      <c r="I102">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J102">
+        <v>7440.09</v>
+      </c>
+      <c r="K102">
+        <v>13.79</v>
+      </c>
+      <c r="L102">
+        <v>1379.38</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
